--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,13 +419,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47.25360488891602</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.41173934936523</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,40 +376,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2444</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47.25360488891602</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.41173934936523</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,13 +419,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.34406280517578</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.76297950744629</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.40092086791992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.28087615966797</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.73787689208984</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.043566703796387</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.78804016113281</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.56465911865234</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7331343460002133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.298947736635498</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7880646597205255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.370283208136557</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9349213336130913</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.817147678943418</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8545783285399399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.80954369050604</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.072462044899533</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.984809259106563</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.774906226954876</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.938200321025002</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8348113053471627</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.117224778434789</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.288995594330084</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,13 +419,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,50 @@
         <v>1.288995594330084</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7331343460002133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.298947736635498</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7880646597205255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.370283208136557</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9349213336130913</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.817147678943418</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8545783285399399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,17 @@
         <v>0.8545783285399399</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.138900628687384</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.388718858525568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,94 @@
         <v>1.388718858525568</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7166400413399839</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.298947736635498</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7562699806494702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.370283208136557</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7446693335206549</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.370283208136557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9017619417890339</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.817147678943418</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8415640570873576</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.80954369050604</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.051241478383454</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.984809259106563</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8014517327795467</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.984809259106563</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8014517327795467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,6 +768,39 @@
         <v>0.8014517327795467</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9.138900628687384</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.34558127125136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.71032033017539</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.480102726150887</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.898999999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.081122146288446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,81 @@
         <v>1.081122146288446</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7166400413399839</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7166400413399839</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.898999999999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6447757592357679</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.402275527108841</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7166400413399839</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8.298947736635498</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7562699806494702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.29180526733398</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.909421920776367</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,6 +876,105 @@
         <v>38</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.111395432</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.467245605</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.149310165</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.688794922</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.280717896</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.06337793</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.220687744</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.111395432</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.111395432</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6.467245605</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.149310165</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7.808485352</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.05115538</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.111395432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,6 +975,126 @@
         <v>0.111395432</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.40344619750977</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.812446355819702</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14</v>
+      </c>
+      <c r="F50" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.22617149353027</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.87995433807373</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.05969619750977</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.14703750610352</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13</v>
+      </c>
+      <c r="F52" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19.48077011108398</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.365187406539917</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C54" t="n">
+        <v>44.13541793823242</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32.65696716308594</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C55" t="n">
+        <v>135.1153869628906</v>
+      </c>
+      <c r="D55" t="n">
+        <v>68.97154235839844</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="n">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,6 +1095,28 @@
         <v>254</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7.171333983999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.097692788614881</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7.55965918</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9411200094452383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F57"/>
+  <dimension ref="A2:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1117,182 @@
         <v>0.9411200094452383</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6108267814011905</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.467245605</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.3888285300428571</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.688794922</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6234628355017857</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6.06337793</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6742674128571431</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.057003906</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7821560505738094</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.365672363</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.7301954762976191</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5.326602539</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7308405650285715</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.638421875</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.853676969695238</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.114503905999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.654042552504762</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.785269531</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5935933657083334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.708305664</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8993917162041668</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.677543701</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9688542740833332</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.308689209</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7082726671000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.720387939</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3246049227821429</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.757430908</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.180549058866667</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.115095581</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8274944492607145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F73"/>
+  <dimension ref="A2:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,6 +1293,107 @@
         <v>0.8274944492607145</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.08916913119583336</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.467245605</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.1043174339261903</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.688794922</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1656417864690476</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.06337793</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.963314870000002</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.688794922</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.467245605</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F84"/>
+  <dimension ref="A2:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,7 +1392,135 @@
       <c r="B84" t="n">
         <v>6.553859863</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.688794922</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.553859863</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.39558252</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F100"/>
+  <dimension ref="A2:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,7 +1520,15 @@
       <c r="B100" t="n">
         <v>6.553859863</v>
       </c>
-      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,7 +1528,15 @@
       <c r="B101" t="n">
         <v>6.553859863</v>
       </c>
-      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.553859863</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F101"/>
+  <dimension ref="A2:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,7 +1528,71 @@
       <c r="B101" t="n">
         <v>6.553859863</v>
       </c>
-      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.55965918</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F102"/>
+  <dimension ref="A2:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,9 +1534,65 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>6.553859863</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.171333983999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.55965918</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F109"/>
+  <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>7.171333983999999</v>
+        <v>9.09126826874734</v>
       </c>
     </row>
     <row r="103">
@@ -1542,57 +1542,9 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.171333983999999</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.55965918</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
+        <v>9.09126826874734</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blankpythontester.xlsx
+++ b/blankpythontester.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F103"/>
+  <dimension ref="A2:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,7 +1544,15 @@
       <c r="B103" t="n">
         <v>9.09126826874734</v>
       </c>
-      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9.09126826874734</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
